--- a/src/test/resources/ExcelSheet/excel.xlsx
+++ b/src/test/resources/ExcelSheet/excel.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMAutomation\data-driven-test-automation\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMAutomation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A0CF14-B3CA-4B6B-9587-4618D7739337}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE220EC-C1D0-468F-B52E-057FCCF8CF8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>userName</t>
   </si>
@@ -37,13 +38,31 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
+  </si>
+  <si>
+    <t>Drop Down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +74,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +104,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEEEFAA-6AB8-42F4-9ACD-AD465C7A150B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -426,4 +455,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4107CB39-AC4C-4547-90DE-DCCA5D2F1EF3}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/excel.xlsx
+++ b/src/test/resources/ExcelSheet/excel.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMAutomation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE220EC-C1D0-468F-B52E-057FCCF8CF8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621F597E-2303-44DC-BBCF-841E8E066951}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="8" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ReportingMethod" sheetId="4" r:id="rId4"/>
+    <sheet name="TerminationReason" sheetId="5" r:id="rId5"/>
+    <sheet name="EditReportingMethod" sheetId="6" r:id="rId6"/>
+    <sheet name="EditTerminationReason" sheetId="7" r:id="rId7"/>
+    <sheet name="Report" sheetId="8" r:id="rId8"/>
+    <sheet name="EditReportSheet" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>userName</t>
   </si>
@@ -56,6 +63,72 @@
   </si>
   <si>
     <t>Drop Down</t>
+  </si>
+  <si>
+    <t>Text or Number</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ReportingMethodName</t>
+  </si>
+  <si>
+    <t>TerminationReason</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MethodName</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>CriteriaInclude</t>
+  </si>
+  <si>
+    <t>FieldGroup</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>TestReportName</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Past Employee Only</t>
+  </si>
+  <si>
+    <t>Past Employees Only</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Employee Id</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Pay Grade</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
 </sst>
 </file>
@@ -427,13 +500,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4107CB39-AC4C-4547-90DE-DCCA5D2F1EF3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,4 +575,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A233681-182B-4C04-8F10-DB776E21686D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FA1FBD-2DEB-4AC3-836B-1F74914E1305}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10AC06-006E-4654-98B7-7E482931F3F3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C0154A-D137-4647-94D2-A61B28A47D64}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9434D058-E4B9-4B2C-A033-34C42079BCA5}">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC1F29-2F93-4445-9B75-B7278F1183D2}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" activeCellId="3" sqref="B1 C1 D1 E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C7150-6B83-4E31-AA18-8E4BC9F28DFB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/excel.xlsx
+++ b/src/test/resources/ExcelSheet/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMAutomation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OHRM\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621F597E-2303-44DC-BBCF-841E8E066951}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0A7EF-74E9-427E-9645-DB0A368E59E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="8" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{33957966-9965-4F73-B7A3-F5C505592874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>userName</t>
   </si>
@@ -104,9 +104,6 @@
     <t>TestReportName</t>
   </si>
   <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
     <t>Past Employee Only</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Employee Id</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -129,13 +123,16 @@
   </si>
   <si>
     <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +150,12 @@
       <sz val="9"/>
       <color rgb="FF008000"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -177,11 +180,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC1F29-2F93-4445-9B75-B7278F1183D2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="3" sqref="B1 C1 D1 E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,20 +771,21 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -788,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C7150-6B83-4E31-AA18-8E4BC9F28DFB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -819,19 +824,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
